--- a/Input Data/Crpo/stackranking/stack_ranking_FourEvents_report.xlsx
+++ b/Input Data/Crpo/stackranking/stack_ranking_FourEvents_report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="40">
   <si>
     <t>Applicant Id</t>
   </si>
@@ -94,12 +94,21 @@
     <t>HRM General Knowledge</t>
   </si>
   <si>
+    <t>42833</t>
+  </si>
+  <si>
+    <t>42834</t>
+  </si>
+  <si>
+    <t>42835</t>
+  </si>
+  <si>
+    <t>HRMM GK Automobile Engineering</t>
+  </si>
+  <si>
     <t>Coding Assessment</t>
   </si>
   <si>
-    <t>HRMM GK Automobile Engineering</t>
-  </si>
-  <si>
     <t>Stack Ranking One</t>
   </si>
   <si>
@@ -112,10 +121,10 @@
     <t>Not Specified</t>
   </si>
   <si>
-    <t>Assessment</t>
-  </si>
-  <si>
-    <t>Pending</t>
+    <t>First Interview</t>
+  </si>
+  <si>
+    <t>Shortlisted</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -521,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AU7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +543,7 @@
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" customWidth="1"/>
@@ -562,9 +571,21 @@
     <col min="33" max="33" width="12.7109375" customWidth="1"/>
     <col min="34" max="34" width="7.7109375" customWidth="1"/>
     <col min="35" max="35" width="10.7109375" customWidth="1"/>
+    <col min="36" max="36" width="11.7109375" customWidth="1"/>
+    <col min="37" max="37" width="12.7109375" customWidth="1"/>
+    <col min="38" max="38" width="7.7109375" customWidth="1"/>
+    <col min="39" max="39" width="10.7109375" customWidth="1"/>
+    <col min="40" max="40" width="11.7109375" customWidth="1"/>
+    <col min="41" max="41" width="12.7109375" customWidth="1"/>
+    <col min="42" max="42" width="7.7109375" customWidth="1"/>
+    <col min="43" max="43" width="10.7109375" customWidth="1"/>
+    <col min="44" max="44" width="11.7109375" customWidth="1"/>
+    <col min="45" max="45" width="12.7109375" customWidth="1"/>
+    <col min="46" max="46" width="7.7109375" customWidth="1"/>
+    <col min="47" max="47" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:47">
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
@@ -583,8 +604,20 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:47">
       <c r="T2" s="1" t="s">
         <v>24</v>
       </c>
@@ -609,8 +642,26 @@
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
+      <c r="AJ2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:47">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,8 +767,44 @@
       <c r="AI3" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="AJ3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:47">
       <c r="A4" s="2">
         <v>896910</v>
       </c>
@@ -725,61 +812,61 @@
         <v>1290157</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3">
         <v>33992</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S4" s="2">
-        <v>44.75</v>
+        <v>46.38</v>
       </c>
       <c r="T4" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="U4" s="2">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="V4" s="2">
         <v>7</v>
@@ -788,10 +875,10 @@
         <v>10</v>
       </c>
       <c r="X4" s="2">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="Y4" s="2">
-        <v>23.75</v>
+        <v>14.25</v>
       </c>
       <c r="Z4" s="2">
         <v>19</v>
@@ -799,246 +886,354 @@
       <c r="AA4" s="2">
         <v>20</v>
       </c>
-      <c r="AB4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI4" s="4" t="s">
-        <v>34</v>
+      <c r="AB4" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>5</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>25</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>50</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>15</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>11.25</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>60</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>1.88</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>3</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>8</v>
+      </c>
+      <c r="AN4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU4" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:47">
       <c r="A5" s="2">
-        <v>896909</v>
+        <v>896911</v>
       </c>
       <c r="B5" s="2">
         <v>1290157</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G5" s="3">
         <v>33992</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="2">
+        <v>44.51</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="2">
         <v>35</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" s="2">
-        <v>36</v>
-      </c>
-      <c r="T5" s="2">
+      <c r="AE5" s="2">
+        <v>50</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>15</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>9.38</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>5</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>3.13</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>5</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>8</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>25</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>25</v>
+      </c>
+      <c r="AP5" s="2">
         <v>30</v>
       </c>
-      <c r="U5" s="2">
-        <v>22.5</v>
-      </c>
-      <c r="V5" s="2">
-        <v>15</v>
-      </c>
-      <c r="W5" s="2">
-        <v>20</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>15</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>13.5</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>9</v>
-      </c>
-      <c r="AE5" s="2">
-        <v>10</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI5" s="4" t="s">
-        <v>34</v>
+      <c r="AQ5" s="2">
+        <v>30</v>
+      </c>
+      <c r="AR5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU5" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:47">
       <c r="A6" s="2">
-        <v>896911</v>
+        <v>896909</v>
       </c>
       <c r="B6" s="2">
         <v>1290157</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G6" s="3">
         <v>33992</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="2">
+        <v>43.51</v>
+      </c>
+      <c r="T6" s="2">
+        <v>20</v>
+      </c>
+      <c r="U6" s="2">
+        <v>15</v>
+      </c>
+      <c r="V6" s="2">
+        <v>15</v>
+      </c>
+      <c r="W6" s="2">
+        <v>20</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>7</v>
+      </c>
+      <c r="AD6" s="2">
         <v>35</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S6" s="2">
-        <v>30</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>34</v>
+      <c r="AE6" s="2">
+        <v>50</v>
       </c>
       <c r="AF6" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AG6" s="2">
-        <v>30</v>
+        <v>9.38</v>
       </c>
       <c r="AH6" s="2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AI6" s="2">
-        <v>30</v>
+        <v>80</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>5</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>3.13</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>5</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>8</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>10</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>9</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>9</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:47">
       <c r="A7" s="2">
         <v>896908</v>
       </c>
@@ -1046,61 +1241,61 @@
         <v>1290157</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G7" s="3">
         <v>33992</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S7" s="2">
-        <v>18</v>
+        <v>31.01</v>
       </c>
       <c r="T7" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="U7" s="2">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="V7" s="2">
         <v>18</v>
@@ -1109,49 +1304,88 @@
         <v>30</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AA7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AC7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AG7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI7" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>9</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>50</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>15</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>5.63</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>30</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>5</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>4.38</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>7</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>8</v>
+      </c>
+      <c r="AN7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU7" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="T1:AI1"/>
+  <mergeCells count="8">
+    <mergeCell ref="T1:AU1"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="X2:AA2"/>
     <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="AF2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="AR2:AU2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Input Data/Crpo/stackranking/stack_ranking_FourEvents_report.xlsx
+++ b/Input Data/Crpo/stackranking/stack_ranking_FourEvents_report.xlsx
@@ -1,163 +1,185 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="40">
   <si>
-    <t>Applicant Id</t>
-  </si>
-  <si>
-    <t>Candidate Id</t>
-  </si>
-  <si>
-    <t>Candidate Name</t>
-  </si>
-  <si>
-    <t>Primary Email</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Date Of Birth</t>
-  </si>
-  <si>
-    <t>Current Stage</t>
-  </si>
-  <si>
-    <t>Current Status</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>Year of Passing</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>College</t>
-  </si>
-  <si>
-    <t>Gap in Education</t>
-  </si>
-  <si>
-    <t>Standing Backlog</t>
-  </si>
-  <si>
-    <t>Have you applied for Accenture in last 6 months (excluding current event)</t>
-  </si>
-  <si>
-    <t>Are you an Indian citizen?</t>
-  </si>
-  <si>
-    <t>Have you worked in Accenture before</t>
-  </si>
-  <si>
-    <t>Stack Percentage</t>
-  </si>
-  <si>
-    <t>Stack Ranking</t>
-  </si>
-  <si>
-    <t>weightage</t>
-  </si>
-  <si>
-    <t>percentage</t>
-  </si>
-  <si>
-    <t>score</t>
-  </si>
-  <si>
-    <t>maxScore</t>
-  </si>
-  <si>
-    <t>Aptitude Technical Automobile</t>
-  </si>
-  <si>
-    <t>HRM General Knowledge</t>
-  </si>
-  <si>
-    <t>42833</t>
-  </si>
-  <si>
-    <t>42834</t>
-  </si>
-  <si>
-    <t>42835</t>
-  </si>
-  <si>
-    <t>HRMM GK Automobile Engineering</t>
-  </si>
-  <si>
-    <t>Coding Assessment</t>
-  </si>
-  <si>
-    <t>Stack Ranking One</t>
-  </si>
-  <si>
-    <t>qaoneh.irepro@gmail.com</t>
-  </si>
-  <si>
-    <t>9966790135</t>
-  </si>
-  <si>
-    <t>Not Specified</t>
-  </si>
-  <si>
-    <t>First Interview</t>
-  </si>
-  <si>
-    <t>Shortlisted</t>
+    <t xml:space="preserve">Stack Ranking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aptitude Technical Automobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HRM General Knowledge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HRMM GK Automobile Engineering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding Assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Applicant Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candidate Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Candidate Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Of Birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year of Passing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">College</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gap in Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standing Backlog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you applied for Accenture in last 6 months (excluding current event)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you an Indian citizen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you worked in Accenture before</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack Percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weightage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">percentage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxScore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stack Ranking One</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qaoneh.irepro@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9966790135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Interview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shortlisted</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>IIT Delhi</t>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IIT Delhi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="DD MMMM YYYY"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="dd\ mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -170,424 +192,213 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF006FA6"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6FFF7"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border>
+  <borders count="2">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFE6FFF7"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF006FA6"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:AU7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4:F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="20.7109375" customWidth="1"/>
-    <col min="15" max="15" width="20.7109375" customWidth="1"/>
-    <col min="16" max="16" width="77.7109375" customWidth="1"/>
-    <col min="17" max="17" width="30.7109375" customWidth="1"/>
-    <col min="18" max="18" width="39.7109375" customWidth="1"/>
-    <col min="19" max="19" width="18.7109375" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" customWidth="1"/>
-    <col min="26" max="26" width="7.7109375" customWidth="1"/>
-    <col min="27" max="27" width="10.7109375" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" customWidth="1"/>
-    <col min="29" max="29" width="12.7109375" customWidth="1"/>
-    <col min="30" max="30" width="7.7109375" customWidth="1"/>
-    <col min="31" max="31" width="10.7109375" customWidth="1"/>
-    <col min="32" max="32" width="11.7109375" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" customWidth="1"/>
-    <col min="34" max="34" width="7.7109375" customWidth="1"/>
-    <col min="35" max="35" width="10.7109375" customWidth="1"/>
-    <col min="36" max="36" width="11.7109375" customWidth="1"/>
-    <col min="37" max="37" width="12.7109375" customWidth="1"/>
-    <col min="38" max="38" width="7.7109375" customWidth="1"/>
-    <col min="39" max="39" width="10.7109375" customWidth="1"/>
-    <col min="40" max="40" width="11.7109375" customWidth="1"/>
-    <col min="41" max="41" width="12.7109375" customWidth="1"/>
-    <col min="42" max="42" width="7.7109375" customWidth="1"/>
-    <col min="43" max="43" width="10.7109375" customWidth="1"/>
-    <col min="44" max="44" width="11.7109375" customWidth="1"/>
-    <col min="45" max="45" width="12.7109375" customWidth="1"/>
-    <col min="46" max="46" width="7.7109375" customWidth="1"/>
-    <col min="47" max="47" width="10.7109375" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="77.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="30.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="39.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="10.71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T1" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
@@ -617,198 +428,198 @@
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
     </row>
-    <row r="2" spans="1:47">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="T2" s="1" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="AO2" s="1"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
     </row>
-    <row r="3" spans="1:47">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="X3" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AA3" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AG3" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AI3" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AO3" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AP3" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AQ3" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AR3" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AU3" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:47">
-      <c r="A4" s="2">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>896910</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="n">
         <v>1290157</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -823,7 +634,7 @@
       <c r="F4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="3" t="n">
         <v>33992</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -859,67 +670,67 @@
       <c r="R4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S4" s="2" t="n">
         <v>46.38</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T4" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U4" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V4" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W4" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X4" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y4" s="2" t="n">
         <v>14.25</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z4" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA4" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB4" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD4" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AE4" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF4" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AG4" s="2" t="n">
         <v>11.25</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AH4" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AI4" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AJ4" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AK4" s="2" t="n">
         <v>1.88</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AL4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AM4" s="2" t="n">
         <v>8</v>
       </c>
       <c r="AN4" s="4" t="s">
@@ -947,11 +758,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:47">
-      <c r="A5" s="2">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>896911</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="n">
         <v>1290157</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -966,7 +777,7 @@
       <c r="F5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="3" t="n">
         <v>33992</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -1002,7 +813,7 @@
       <c r="R5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="2" t="n">
         <v>44.51</v>
       </c>
       <c r="T5" s="4" t="s">
@@ -1029,52 +840,52 @@
       <c r="AA5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AE5" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AF5" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AG5" s="2" t="n">
         <v>9.38</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AH5" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AI5" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AJ5" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AK5" s="2" t="n">
         <v>3.13</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AL5" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AM5" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="AN5" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AO5" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="AP5" s="2">
+      <c r="AP5" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AQ5" s="2" t="n">
         <v>30</v>
       </c>
       <c r="AR5" s="4" t="s">
@@ -1090,11 +901,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:47">
-      <c r="A6" s="2">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>896909</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="n">
         <v>1290157</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1109,7 +920,7 @@
       <c r="F6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="3" t="n">
         <v>33992</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -1145,19 +956,19 @@
       <c r="R6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="2" t="n">
         <v>43.51</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V6" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6" s="2" t="n">
         <v>20</v>
       </c>
       <c r="X6" s="4" t="s">
@@ -1172,40 +983,40 @@
       <c r="AA6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AB6" s="2">
+      <c r="AB6" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="AC6" s="2">
+      <c r="AC6" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AE6" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AF6" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AG6" s="2" t="n">
         <v>9.38</v>
       </c>
-      <c r="AH6" s="2">
+      <c r="AH6" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="AI6" s="2">
+      <c r="AI6" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AJ6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AK6" s="2">
+      <c r="AK6" s="2" t="n">
         <v>3.13</v>
       </c>
-      <c r="AL6" s="2">
+      <c r="AL6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AM6" s="2">
+      <c r="AM6" s="2" t="n">
         <v>8</v>
       </c>
       <c r="AN6" s="4" t="s">
@@ -1220,24 +1031,24 @@
       <c r="AQ6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AR6" s="2">
+      <c r="AR6" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="AS6" s="2">
+      <c r="AS6" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AT6" s="2">
+      <c r="AT6" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AU6" s="2">
+      <c r="AU6" s="2" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:47">
-      <c r="A7" s="2">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>896908</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="n">
         <v>1290157</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -1252,7 +1063,7 @@
       <c r="F7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="3" t="n">
         <v>33992</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -1288,19 +1099,19 @@
       <c r="R7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="2" t="n">
         <v>31.01</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V7" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="W7" s="2">
+      <c r="W7" s="2" t="n">
         <v>30</v>
       </c>
       <c r="X7" s="4" t="s">
@@ -1315,40 +1126,40 @@
       <c r="AA7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AB7" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AC7" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AD7" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AE7" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AF7" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="AG7" s="2">
+      <c r="AG7" s="2" t="n">
         <v>5.63</v>
       </c>
-      <c r="AH7" s="2">
+      <c r="AH7" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="AI7" s="2">
+      <c r="AI7" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AJ7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AK7" s="2">
+      <c r="AK7" s="2" t="n">
         <v>4.38</v>
       </c>
-      <c r="AL7" s="2">
+      <c r="AL7" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="AM7" s="2">
+      <c r="AM7" s="2" t="n">
         <v>8</v>
       </c>
       <c r="AN7" s="4" t="s">
@@ -1387,6 +1198,12 @@
     <mergeCell ref="AN2:AQ2"/>
     <mergeCell ref="AR2:AU2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Input Data/Crpo/stackranking/stack_ranking_FourEvents_report.xlsx
+++ b/Input Data/Crpo/stackranking/stack_ranking_FourEvents_report.xlsx
@@ -343,11 +343,11 @@
   </sheetPr>
   <dimension ref="A1:AU7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4:F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S4" activeCellId="0" sqref="S4:S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="21.71"/>
@@ -359,40 +359,40 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="0" width="20.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="77.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="30.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="39.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="39.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="0" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="0" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="0" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="0" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="0" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="0" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="0" width="10.71"/>
   </cols>
   <sheetData>
@@ -1199,8 +1199,8 @@
     <mergeCell ref="AR2:AU2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
